--- a/C.xlsx
+++ b/C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89705234-2907-4037-AF0C-D462D7B86F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2DE94B-ADD7-4AAF-BD89-FD16744ED884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="405" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{ECBF2BEA-AF43-46D4-8CEA-667D1CDE884C}"/>
+    <workbookView xWindow="1155" yWindow="330" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{ECBF2BEA-AF43-46D4-8CEA-667D1CDE884C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>C</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Q225</t>
-  </si>
-  <si>
-    <t>Max Price to Buy</t>
   </si>
 </sst>
 </file>
@@ -711,10 +708,10 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1163,22 +1160,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="2">
-        <f>G27*0.7</f>
-        <v>69.054270833333334</v>
-      </c>
       <c r="K30" s="4"/>
-      <c r="M30" s="2">
-        <f>M27*0.7</f>
-        <v>66.844832116021237</v>
-      </c>
-      <c r="N30" s="2">
-        <f>N27*0.7</f>
-        <v>70.903201747376272</v>
-      </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="G31" s="4"/>
